--- a/Multilingual charts.xlsx
+++ b/Multilingual charts.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeeLyCooLa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeeLyCooLa\Desktop\ChromiumData\Blogs\Blog02 - Multilingual Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales,Exp - 2017" sheetId="2" r:id="rId1"/>
+    <sheet name="Sales,Exp - 2018" sheetId="2" r:id="rId1"/>
     <sheet name="Tabe and BackEnd" sheetId="1" r:id="rId2"/>
+    <sheet name="Helper" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Lang">'Tabe and BackEnd'!$F$3</definedName>
-    <definedName name="Languages">'Tabe and BackEnd'!$I$2:$I$5</definedName>
+    <definedName name="Lang">Helper!$E$2</definedName>
+    <definedName name="Languages">Helper!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Sales</t>
   </si>
@@ -169,15 +170,9 @@
     <t>décembre</t>
   </si>
   <si>
-    <t>Sales and Expenses in 2017</t>
-  </si>
-  <si>
     <t>Der Umsatz</t>
   </si>
   <si>
-    <t>Umsatz und Ausgaben im Jahr 2017</t>
-  </si>
-  <si>
     <t>Die Kosten</t>
   </si>
   <si>
@@ -211,16 +206,30 @@
     <t>RU</t>
   </si>
   <si>
-    <t>Ventes et dépenses en 2017</t>
-  </si>
-  <si>
-    <t>Продажи и расходы в 2017 году</t>
-  </si>
-  <si>
     <t>Selected lang index</t>
   </si>
   <si>
     <t>Selected language</t>
+  </si>
+  <si>
+    <t>Chart
+metadata</t>
+  </si>
+  <si>
+    <t>Chart
+Y axis</t>
+  </si>
+  <si>
+    <t>Umsatz und Ausgaben im Jahr 2018</t>
+  </si>
+  <si>
+    <t>Sales and Expenses in 2018</t>
+  </si>
+  <si>
+    <t>Ventes et dépenses en 2018</t>
+  </si>
+  <si>
+    <t>Продажи и расходы в 2018 году</t>
   </si>
 </sst>
 </file>
@@ -231,7 +240,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +250,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -280,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,6 +306,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -337,11 +359,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Tabe and BackEnd'!$F$1</c:f>
+          <c:f>'Tabe and BackEnd'!$B$4</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sales and Expenses in 2017</c:v>
+              <c:v>Sales and Expenses in 2018</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -741,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-1281791440"/>
-        <c:axId val="-1281782736"/>
+        <c:axId val="-1692852672"/>
+        <c:axId val="-1692872800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1281791440"/>
+        <c:axId val="-1692852672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -788,7 +810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1281782736"/>
+        <c:crossAx val="-1692872800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1281782736"/>
+        <c:axId val="-1692872800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +828,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1281791440"/>
+        <c:crossAx val="-1692852672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,6 +922,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1552,6 +1575,52 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00586</cdr:x>
+      <cdr:y>0.00807</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25998</cdr:x>
+      <cdr:y>0.07302</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="2202636" cy="408937"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1820,92 +1889,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:RU18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="11" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="107" width="0" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="11" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.85546875" customWidth="1"/>
+    <col min="109" max="109" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="110" max="143" width="0" hidden="1" customWidth="1"/>
-    <col min="144" max="144" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="25" bestFit="1" customWidth="1"/>
     <col min="145" max="173" width="0" hidden="1" customWidth="1"/>
+    <col min="174" max="174" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="175" max="488" width="0" hidden="1" customWidth="1"/>
+    <col min="489" max="489" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:489" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="5" t="str">
-        <f ca="1">INDIRECT(Lang&amp;3)</f>
-        <v>Sales and Expenses in 2017</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
+      <c r="DD1" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="DE1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EN1" t="s">
         <v>0</v>
       </c>
       <c r="FR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="RU1" t="s">
         <v>50</v>
-      </c>
-      <c r="RU1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:489" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="DD2" s="8"/>
       <c r="DE2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="EN2" t="s">
         <v>1</v>
       </c>
       <c r="FR2" t="s">
+        <v>49</v>
+      </c>
+      <c r="RU2" t="s">
         <v>51</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:489" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+      <c r="DD3" s="8"/>
+      <c r="DE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EN3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f>INDEX(Languages,F2)</f>
-        <v>EN</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="DE3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>46</v>
-      </c>
       <c r="FR3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="FS3" s="2"/>
       <c r="FT3" s="2"/>
@@ -2222,17 +2272,16 @@
       <c r="RS3" s="2"/>
       <c r="RT3" s="2"/>
       <c r="RU3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:489" x14ac:dyDescent="0.25">
-      <c r="I4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:489" x14ac:dyDescent="0.25">
-      <c r="I5" s="4" t="s">
-        <v>59</v>
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f ca="1">INDIRECT(Lang&amp;3)</f>
+        <v>Sales and Expenses in 2018</v>
       </c>
     </row>
     <row r="6" spans="1:489" x14ac:dyDescent="0.25">
@@ -2247,7 +2296,7 @@
     </row>
     <row r="7" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
-        <f t="shared" ref="A7:A18" ca="1" si="0">INDIRECT(Lang&amp;ROW())</f>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>January</v>
       </c>
       <c r="B7" s="3">
@@ -2255,6 +2304,9 @@
       </c>
       <c r="C7" s="3">
         <v>115000</v>
+      </c>
+      <c r="DD7" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="DE7" t="s">
         <v>14</v>
@@ -2271,7 +2323,7 @@
     </row>
     <row r="8" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>February</v>
       </c>
       <c r="B8" s="3">
@@ -2280,6 +2332,7 @@
       <c r="C8" s="3">
         <v>115000</v>
       </c>
+      <c r="DD8" s="8"/>
       <c r="DE8" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2348,7 @@
     </row>
     <row r="9" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>March</v>
       </c>
       <c r="B9" s="3">
@@ -2304,6 +2357,7 @@
       <c r="C9" s="3">
         <v>130000</v>
       </c>
+      <c r="DD9" s="8"/>
       <c r="DE9" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2373,7 @@
     </row>
     <row r="10" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>April</v>
       </c>
       <c r="B10" s="3">
@@ -2328,6 +2382,7 @@
       <c r="C10" s="3">
         <v>131000</v>
       </c>
+      <c r="DD10" s="8"/>
       <c r="DE10" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2398,7 @@
     </row>
     <row r="11" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>May</v>
       </c>
       <c r="B11" s="3">
@@ -2352,6 +2407,7 @@
       <c r="C11" s="3">
         <v>90000</v>
       </c>
+      <c r="DD11" s="8"/>
       <c r="DE11" t="s">
         <v>17</v>
       </c>
@@ -2367,7 +2423,7 @@
     </row>
     <row r="12" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>June</v>
       </c>
       <c r="B12" s="3">
@@ -2376,6 +2432,7 @@
       <c r="C12" s="3">
         <v>98000</v>
       </c>
+      <c r="DD12" s="8"/>
       <c r="DE12" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2448,7 @@
     </row>
     <row r="13" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>July</v>
       </c>
       <c r="B13" s="3">
@@ -2400,6 +2457,7 @@
       <c r="C13" s="3">
         <v>100000</v>
       </c>
+      <c r="DD13" s="8"/>
       <c r="DE13" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2473,7 @@
     </row>
     <row r="14" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>August</v>
       </c>
       <c r="B14" s="3">
@@ -2424,6 +2482,7 @@
       <c r="C14" s="3">
         <v>121000</v>
       </c>
+      <c r="DD14" s="8"/>
       <c r="DE14" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2498,7 @@
     </row>
     <row r="15" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>September</v>
       </c>
       <c r="B15" s="3">
@@ -2448,6 +2507,7 @@
       <c r="C15" s="3">
         <v>111000</v>
       </c>
+      <c r="DD15" s="8"/>
       <c r="DE15" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +2523,7 @@
     </row>
     <row r="16" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>October</v>
       </c>
       <c r="B16" s="3">
@@ -2472,6 +2532,7 @@
       <c r="C16" s="3">
         <v>120000</v>
       </c>
+      <c r="DD16" s="8"/>
       <c r="DE16" t="s">
         <v>20</v>
       </c>
@@ -2487,7 +2548,7 @@
     </row>
     <row r="17" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>November</v>
       </c>
       <c r="B17" s="3">
@@ -2496,6 +2557,7 @@
       <c r="C17" s="3">
         <v>130000</v>
       </c>
+      <c r="DD17" s="8"/>
       <c r="DE17" t="s">
         <v>12</v>
       </c>
@@ -2511,7 +2573,7 @@
     </row>
     <row r="18" spans="1:489" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">INDIRECT(Lang&amp;ROW())</f>
         <v>December</v>
       </c>
       <c r="B18" s="3">
@@ -2520,6 +2582,7 @@
       <c r="C18" s="3">
         <v>130000</v>
       </c>
+      <c r="DD18" s="8"/>
       <c r="DE18" t="s">
         <v>21</v>
       </c>
@@ -2531,10 +2594,70 @@
       </c>
       <c r="RU18" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="DD7:DD18"/>
+    <mergeCell ref="DD1:DD3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>INDEX(Languages,E1)</f>
+        <v>EN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>